--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9321.783866384023</v>
+        <v>6753.360427438489</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854492</v>
+        <v>10116307.12854491</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312.0057383288088</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>40.72356206077138</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369548</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344217</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X11" t="n">
         <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.910763857457</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535775</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.77885970589364</v>
       </c>
       <c r="S13" t="n">
-        <v>56.92051113072353</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516889</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.85831908230355</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
         <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>61.68860894581739</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0005093289731</v>
@@ -1625,7 +1625,7 @@
         <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844558</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369551</v>
+        <v>82.26654546369545</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X14" t="n">
         <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.910763857457</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>40.85674904439651</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220889</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>88.46218005405922</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535779</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556702</v>
+        <v>62.01093634556695</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069616</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516889</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993477</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7884390645569</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276145</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8374887204076</v>
+        <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>135.4382158533158</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D17" t="n">
-        <v>280.78668867761</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291888</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986385</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0253727103805</v>
+        <v>3.988230719930812</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7114114442475</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>35.29140884510292</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965472</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
         <v>253.855905527062</v>
@@ -1910,7 +1910,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129806</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555491</v>
+        <v>93.35046815555494</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513943</v>
+        <v>74.71912007513946</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349624</v>
+        <v>72.53760970349627</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985832</v>
+        <v>71.52469507985835</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1294553159553</v>
+        <v>92.12945531595533</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124786</v>
+        <v>70.85866197124788</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676517</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0357997269744</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S19" t="n">
         <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0694063257219</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3154852625399</v>
+        <v>274.7322952551654</v>
       </c>
       <c r="V19" t="n">
         <v>178.2412903807551</v>
@@ -2065,10 +2065,10 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8133024459642</v>
+        <v>151.8133024459643</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090218</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="20">
@@ -2084,16 +2084,16 @@
         <v>291.3765388279346</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E20" t="n">
-        <v>255.7835638163508</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986385</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0253727103805</v>
+        <v>336.9679235185704</v>
       </c>
       <c r="H20" t="n">
         <v>220.7114114442475</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510292</v>
+        <v>35.29140884510289</v>
       </c>
       <c r="T20" t="n">
         <v>130.0216171965472</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V20" t="n">
         <v>253.855905527062</v>
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555491</v>
+        <v>93.35046815555489</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513943</v>
+        <v>74.71912007513941</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349624</v>
+        <v>72.53760970349623</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985832</v>
+        <v>71.5246950798583</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1294553159553</v>
+        <v>92.12945531595528</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124786</v>
+        <v>70.85866197124784</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676517</v>
+        <v>22.45606746676516</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0357997269744</v>
+        <v>15.03579972697439</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6525963330963</v>
+        <v>208.0694063257219</v>
       </c>
       <c r="U22" t="n">
         <v>212.3154852625399</v>
@@ -2302,7 +2302,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>214.23011243859</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6883004090218</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7114114442476</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510298</v>
+        <v>35.29140884510289</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V23" t="n">
         <v>253.855905527062</v>
@@ -2384,7 +2384,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555496</v>
+        <v>93.35046815555489</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1359300677648</v>
+        <v>74.71912007513941</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5376097034963</v>
+        <v>72.53760970349623</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985838</v>
+        <v>71.5246950798583</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595535</v>
+        <v>92.12945531595528</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124791</v>
+        <v>70.85866197124784</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676523</v>
+        <v>22.45606746676516</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697446</v>
+        <v>15.03579972697439</v>
       </c>
       <c r="S25" t="n">
         <v>115.872672388369</v>
@@ -2530,7 +2530,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V25" t="n">
         <v>178.2412903807551</v>
@@ -2539,10 +2539,10 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>214.23011243859</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
         <v>204.0200353403094</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958324</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.022647069325</v>
+        <v>1139.31563829967</v>
       </c>
       <c r="C11" t="n">
-        <v>1429.253277931419</v>
+        <v>1139.31563829967</v>
       </c>
       <c r="D11" t="n">
         <v>1098.180727127174</v>
       </c>
       <c r="E11" t="n">
-        <v>739.5856223314349</v>
+        <v>739.5856223314348</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314349</v>
+        <v>739.5856223314348</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789367</v>
+        <v>351.7063199789368</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020928</v>
+        <v>81.31586739020941</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5048,43 +5048,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508300938772</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.7237011255</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.268492685513</v>
+        <v>2837.386372201841</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.398753144447</v>
+        <v>2533.516632660776</v>
       </c>
       <c r="W11" t="n">
-        <v>2795.398753144447</v>
+        <v>2207.941125193167</v>
       </c>
       <c r="X11" t="n">
-        <v>2449.126142685873</v>
+        <v>1861.668514734593</v>
       </c>
       <c r="Y11" t="n">
-        <v>2086.179958512566</v>
+        <v>1498.722330561287</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.5648461288647</v>
+        <v>451.898588947303</v>
       </c>
       <c r="C13" t="n">
-        <v>639.8218110034632</v>
+        <v>310.1555538219015</v>
       </c>
       <c r="D13" t="n">
-        <v>516.8983193936328</v>
+        <v>187.2320622120712</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1783736137452</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1783736137452</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909695</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403545</v>
@@ -5206,7 +5206,7 @@
         <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N13" t="n">
         <v>1451.007173388083</v>
@@ -5221,28 +5221,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.510581378377</v>
+        <v>2111.441026119899</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.015115589767</v>
+        <v>1946.94828974923</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.441647961799</v>
+        <v>1752.374822121262</v>
       </c>
       <c r="U13" t="n">
-        <v>1626.531928889948</v>
+        <v>1490.465103049411</v>
       </c>
       <c r="V13" t="n">
-        <v>1399.040588486566</v>
+        <v>1262.973762646029</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.816566252111</v>
+        <v>1000.749740411574</v>
       </c>
       <c r="X13" t="n">
-        <v>936.020163156599</v>
+        <v>799.9533373160619</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.020163156599</v>
+        <v>606.3539059750373</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.815404056428</v>
+        <v>1502.261822472976</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.046034918521</v>
+        <v>1160.49245333507</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973484114276</v>
+        <v>1098.180727127173</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378379318537</v>
+        <v>739.5856223314347</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314348</v>
+        <v>739.5856223314347</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789367</v>
+        <v>351.7063199789366</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020931</v>
+        <v>81.31586739020926</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938772</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.508300938772</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.508300938772</v>
+        <v>2837.38637220184</v>
       </c>
       <c r="V14" t="n">
-        <v>2938.638561397706</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W14" t="n">
-        <v>2938.638561397706</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X14" t="n">
-        <v>2592.365950939132</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y14" t="n">
-        <v>2229.419766765825</v>
+        <v>1861.668514734592</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,7 +5373,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3308347658139</v>
+        <v>418.3308347658152</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3308347658139</v>
+        <v>276.5877996404137</v>
       </c>
       <c r="D16" t="n">
-        <v>377.0613912866255</v>
+        <v>276.5877996404137</v>
       </c>
       <c r="E16" t="n">
-        <v>256.3414455067377</v>
+        <v>155.8678538605261</v>
       </c>
       <c r="F16" t="n">
-        <v>136.6446458113327</v>
+        <v>155.8678538605261</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6446458113327</v>
+        <v>155.8678538605261</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5443,7 +5443,7 @@
         <v>712.1377427601981</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
         <v>1451.007173388083</v>
@@ -5461,25 +5461,25 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939773</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.897348867922</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="V16" t="n">
         <v>1229.406008464541</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1819862300854</v>
+        <v>967.1819862300861</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3855831345729</v>
+        <v>766.3855831345742</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7861517935482</v>
+        <v>572.7861517935495</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.800397859841</v>
+        <v>1518.912701884256</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994119220128</v>
+        <v>1224.592965694423</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371201363957</v>
+        <v>940.9700478382508</v>
       </c>
       <c r="E17" t="n">
-        <v>966.225729516291</v>
+        <v>629.8245759905853</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772622</v>
+        <v>293.4814519515564</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728375</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021646</v>
+        <v>3158.622967021645</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.622967021646</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.202860428654</v>
+        <v>2723.315164453068</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.076985909118</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.254008398617</v>
+        <v>2146.366312423032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.757457173384</v>
+        <v>1830.869761197799</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877564</v>
+        <v>569.1142151877566</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104282</v>
+        <v>474.8208130104284</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486712</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168568</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695252</v>
+        <v>253.8294747695253</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948228</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325935</v>
+        <v>89.19501286325938</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5701,22 +5701,22 @@
         <v>1795.063768174005</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.892650673275</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
         <v>1370.432564549498</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.390857094189</v>
+        <v>1190.39085709419</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078075</v>
+        <v>975.6164678078077</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603688</v>
+        <v>822.269697660369</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674174</v>
+        <v>676.1198992674176</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>1518.912701884256</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592965694423</v>
+        <v>1224.592965694424</v>
       </c>
       <c r="D20" t="n">
-        <v>1224.592965694423</v>
+        <v>940.9700478382515</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2257295162913</v>
+        <v>629.8245759905853</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772624</v>
+        <v>629.8245759905853</v>
       </c>
       <c r="G20" t="n">
         <v>289.4529360728375</v>
@@ -5759,16 +5759,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,13 +5777,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021646</v>
+        <v>3158.622967021645</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.735271046061</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V20" t="n">
         <v>2723.315164453069</v>
@@ -5795,7 +5795,7 @@
         <v>2146.366312423032</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869761197799</v>
+        <v>1830.8697611978</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,46 +5817,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5887,22 +5887,22 @@
         <v>569.1142151877564</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104282</v>
+        <v>474.8208130104281</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486712</v>
+        <v>399.3469543486711</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168568</v>
+        <v>326.0766415168567</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695252</v>
+        <v>253.8294747695251</v>
       </c>
       <c r="G22" t="n">
         <v>160.7694188948228</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325935</v>
+        <v>89.19501286325934</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5938,16 +5938,16 @@
         <v>1795.063768174005</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673275</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370332</v>
+        <v>1370.432564549498</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.438139915023</v>
+        <v>1190.390857094189</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628642</v>
+        <v>975.6164678078075</v>
       </c>
       <c r="X22" t="n">
         <v>822.2696976603688</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073752</v>
+        <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859448883919</v>
@@ -5972,7 +5972,7 @@
         <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800814</v>
+        <v>973.0910591800812</v>
       </c>
       <c r="F23" t="n">
         <v>636.7479351410525</v>
@@ -5987,25 +5987,25 @@
         <v>73.37744609597333</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4658898273984</v>
+        <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>722.2852635172449</v>
+        <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.319476765654</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.851381437578</v>
+        <v>1917.043222190884</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.630198496361</v>
+        <v>2463.822039249666</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.602669375698</v>
+        <v>2966.794510129003</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.377035732876</v>
+        <v>3361.568876486182</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.855238241864</v>
@@ -6020,19 +6020,19 @@
         <v>3501.889450211141</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235557</v>
+        <v>3323.001754235556</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642565</v>
+        <v>3066.581647642564</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123029</v>
+        <v>2788.455773123028</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612528</v>
+        <v>2489.632795612527</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387295</v>
+        <v>2174.136244387294</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656373</v>
+        <v>1692.816443656374</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074428</v>
+        <v>2103.777723074429</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277314550531</v>
+        <v>2414.277314550532</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.918872197131</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723804</v>
+        <v>575.9795448515463</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950521</v>
+        <v>481.686142674218</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124614</v>
+        <v>406.2122840124611</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>332.9419711806466</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333153</v>
+        <v>260.694804433315</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586129</v>
+        <v>167.6347485586127</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704931</v>
+        <v>96.06034252704924</v>
       </c>
       <c r="I25" t="n">
         <v>73.37744609597333</v>
@@ -6187,10 +6187,10 @@
         <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449928</v>
+        <v>829.1350273241587</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520414</v>
+        <v>682.9852289312073</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,22 +6464,22 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.09431497013</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.066785849467</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P29" t="n">
-        <v>3672.421873296413</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
@@ -6494,10 +6494,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6543,10 +6543,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,16 +6698,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>875.9322461484376</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1326.966459396846</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N32" t="n">
         <v>2852.295579285457</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6950,10 +6950,10 @@
         <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603402</v>
@@ -6962,25 +6962,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,16 +7093,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7132,7 +7132,7 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>668.7073684286665</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1119.741581677075</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803191</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7345,28 +7345,28 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>698.9037015467787</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7409,49 +7409,49 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871313</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7488,10 +7488,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
         <v>779.7865456803191</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913841</v>
@@ -7558,7 +7558,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7594,7 +7594,7 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,37 +7646,37 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659143</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424368</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,13 +7804,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764238</v>
+        <v>212.1614152764231</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188447</v>
+        <v>225.9304893188439</v>
       </c>
       <c r="M5" t="n">
-        <v>219.401870760399</v>
+        <v>219.401870760398</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030245</v>
+        <v>218.2916099030235</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661495</v>
+        <v>219.5965380661486</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111185</v>
+        <v>222.2700605111177</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357296</v>
+        <v>123.6869003357293</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344811</v>
+        <v>132.4563458344806</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915385</v>
+        <v>131.3134574915378</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437706</v>
+        <v>133.6842191437698</v>
       </c>
       <c r="N6" t="n">
-        <v>122.668255851114</v>
+        <v>122.6682558511132</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891804</v>
+        <v>134.6617264891797</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357713</v>
+        <v>127.6062572357707</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369109</v>
+        <v>135.7248343369105</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970312</v>
+        <v>130.7280129970309</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216064</v>
+        <v>134.543165321606</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145265</v>
+        <v>123.4071347145261</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663804</v>
+        <v>134.5047345663801</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299174</v>
+        <v>134.3465531299171</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4841543155552</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.7991449754602</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>306.6874953089238</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.7385611944694</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.40458911672741</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.7385611944681</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665416</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>108.7354935515729</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>65.51711806374283</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>277.220684154413</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>221.2853655744082</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>21.13839585591323</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>306.6874953089242</v>
       </c>
       <c r="P44" t="n">
-        <v>277.220684154412</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.80688701019143</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.0382632354312</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535772</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.010936345567</v>
+        <v>33.23207663967331</v>
       </c>
       <c r="S13" t="n">
-        <v>105.927297876238</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>281.9543062566967</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.0732163503852</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344217</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.83750764933555</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4998316984508</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>139.1045919345478</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>29.37161853578117</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535772</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>155.9383229746188</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0371419904498</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.098819015829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.78668867761</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>52.25045331283805</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.05744919181013187</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958163.560768888</v>
+        <v>958163.5607688881</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958163.5607688881</v>
+        <v>958163.5607688884</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1042650.720810595</v>
+        <v>1042650.720810594</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1100176.667185689</v>
+        <v>1100176.667185688</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226673</v>
+        <v>368674.3524226674</v>
       </c>
       <c r="C2" t="n">
-        <v>368676.5850342783</v>
+        <v>368676.5850342785</v>
       </c>
       <c r="D2" t="n">
-        <v>368679.3954842109</v>
+        <v>368679.395484211</v>
       </c>
       <c r="E2" t="n">
-        <v>328293.8506137772</v>
+        <v>328293.8506137774</v>
       </c>
       <c r="F2" t="n">
         <v>328293.8506137776</v>
       </c>
       <c r="G2" t="n">
-        <v>357539.4060128295</v>
+        <v>357539.4060128294</v>
       </c>
       <c r="H2" t="n">
-        <v>357539.4060128293</v>
+        <v>357539.4060128296</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="J2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="K2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="M2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389279</v>
       </c>
     </row>
     <row r="3">
@@ -26366,34 +26366,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945308</v>
+        <v>14118.19859945434</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072324</v>
+        <v>16714.64353072205</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>1.513046754553215e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487393</v>
+        <v>37580.10929487417</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905841</v>
+        <v>22820.44161905848</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728121</v>
+        <v>25410.44272728112</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26418,37 +26418,37 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200271</v>
+        <v>426739.1543200267</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210908</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.467102109</v>
+        <v>37585.46710210911</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521038</v>
+        <v>74613.22686521035</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521038</v>
+        <v>74613.2268652104</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913904</v>
+        <v>85473.00365913911</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646591</v>
+      </c>
+      <c r="L4" t="n">
         <v>80755.36360646595</v>
       </c>
-      <c r="L4" t="n">
-        <v>80755.36360646594</v>
-      </c>
       <c r="M4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="N4" t="n">
         <v>80755.36360646594</v>
@@ -26457,7 +26457,7 @@
         <v>80755.36360646592</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646586</v>
+        <v>80755.36360646591</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112991</v>
+        <v>33965.59259112993</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.58029657605</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.58029657604</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76569.58029657605</v>
       </c>
       <c r="G5" t="n">
         <v>80518.7330569645</v>
@@ -26491,7 +26491,7 @@
         <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26506,7 +26506,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95851.7570200086</v>
+        <v>-95856.1705978766</v>
       </c>
       <c r="C6" t="n">
-        <v>-106146.3604763318</v>
+        <v>-106150.7616508028</v>
       </c>
       <c r="D6" t="n">
-        <v>-104021.3027700622</v>
+        <v>-104025.6883309205</v>
       </c>
       <c r="E6" t="n">
-        <v>-903030.038256828</v>
+        <v>-903258.7879558566</v>
       </c>
       <c r="F6" t="n">
-        <v>214138.8032150924</v>
+        <v>213910.053516064</v>
       </c>
       <c r="G6" t="n">
-        <v>164827.3367957806</v>
+        <v>164761.0624045243</v>
       </c>
       <c r="H6" t="n">
-        <v>202407.4460906544</v>
+        <v>202341.1716993985</v>
       </c>
       <c r="I6" t="n">
-        <v>175438.9675592852</v>
+        <v>175438.9675592848</v>
       </c>
       <c r="J6" t="n">
-        <v>173925.0484303744</v>
+        <v>173925.0484303746</v>
       </c>
       <c r="K6" t="n">
+        <v>199335.4911576557</v>
+      </c>
+      <c r="L6" t="n">
+        <v>161755.3818627816</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-7853.077134417239</v>
+      </c>
+      <c r="N6" t="n">
+        <v>199335.4911576556</v>
+      </c>
+      <c r="O6" t="n">
         <v>199335.4911576555</v>
       </c>
-      <c r="L6" t="n">
-        <v>161755.3818627815</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-7853.077134417224</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>199335.4911576558</v>
-      </c>
-      <c r="O6" t="n">
-        <v>199335.4911576558</v>
-      </c>
-      <c r="P6" t="n">
-        <v>199335.4911576555</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859257</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953709</v>
+        <v>15.50424729953849</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>917.2180761996666</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953709</v>
+        <v>15.50424729953849</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958824</v>
+        <v>19.51701341958684</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
+        <v>-3.139307860380569e-14</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737384</v>
+        <v>85.81662079737396</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894805</v>
+        <v>97.11838500894771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096109</v>
+        <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.072964971349</v>
+        <v>208.0729649713488</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593852371</v>
+        <v>6.659224593851895</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116784459</v>
+        <v>3.259908116783852</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886691</v>
+        <v>145.9538669886688</v>
       </c>
       <c r="S5" t="n">
-        <v>207.599755876343</v>
+        <v>207.5997558763429</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27710,10 +27710,10 @@
         <v>137.3101684048682</v>
       </c>
       <c r="H6" t="n">
-        <v>111.9133654388212</v>
+        <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234559</v>
+        <v>88.24844095234548</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573514</v>
+        <v>98.08728580573495</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27749,7 +27749,7 @@
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837155</v>
+        <v>225.9391880837154</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27795,10 +27795,10 @@
         <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997606</v>
+        <v>91.38251566997587</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263558</v>
+        <v>19.02122493263528</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946428</v>
+        <v>83.82090190946407</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059644</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029852</v>
+        <v>223.5293580029851</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448037</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9212163244803</v>
+        <v>26.9212163244804</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="T19" t="n">
-        <v>11.47954295044727</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307293</v>
+        <v>11.47954295044752</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307293</v>
+        <v>73.8963529430729</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307293</v>
+        <v>11.47954295044727</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X22" t="n">
-        <v>11.47954295044718</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307293</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="D25" t="n">
-        <v>11.47954295044758</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307287</v>
+        <v>11.47954295044718</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307287</v>
+        <v>73.89635294307294</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859114</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235994806</v>
+        <v>0.06232863235995367</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563183</v>
+        <v>0.6383231061563757</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4029245990569</v>
+        <v>2.402924599057116</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760147</v>
+        <v>5.290064760760623</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768556749</v>
+        <v>7.928435768557463</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651142512</v>
+        <v>9.835925651143398</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687374</v>
+        <v>10.94436246687472</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356644</v>
+        <v>11.12145369356744</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553721</v>
+        <v>10.50167335553815</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244150987</v>
+        <v>8.962935244151796</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760346</v>
+        <v>6.730791097760952</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480591</v>
+        <v>3.915250952480943</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902318</v>
+        <v>1.420313709902446</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556728</v>
+        <v>0.2728435881556973</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588795844</v>
+        <v>0.004986290588796293</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240054</v>
+        <v>0.03334875834240354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976752895</v>
+        <v>0.3220787976753184</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069492</v>
+        <v>1.148191899069596</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937062</v>
+        <v>3.150726330937346</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139877897</v>
+        <v>5.385093139878382</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288335696</v>
+        <v>7.240922288336348</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778247713</v>
+        <v>8.449814778248475</v>
       </c>
       <c r="N6" t="n">
-        <v>8.67345623221934</v>
+        <v>8.67345623222012</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264043</v>
+        <v>7.934517955264758</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178558924</v>
+        <v>6.368150178559498</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110638</v>
+        <v>4.25693974911102</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346907992</v>
+        <v>2.070548346908179</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595616938</v>
+        <v>0.6194385595617495</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573074</v>
+        <v>0.1344188987573195</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368457</v>
+        <v>0.002193997259368655</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687016</v>
+        <v>0.02795847873687268</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696276</v>
+        <v>0.24857629276965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060142411</v>
+        <v>0.8407877060143168</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97666444669672</v>
+        <v>1.976664446696898</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247278</v>
+        <v>3.248266893247571</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207043</v>
+        <v>4.156663284207417</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625998655</v>
+        <v>4.382618625999051</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750706689</v>
+        <v>4.278409750707074</v>
       </c>
       <c r="O7" t="n">
-        <v>3.95180388546234</v>
+        <v>3.951803885462696</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230186</v>
+        <v>3.381450919230491</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230101</v>
+        <v>2.341141342230312</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205089</v>
+        <v>1.257114871205202</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339870916</v>
+        <v>0.4872400339871355</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546029907</v>
+        <v>0.1194589546030014</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102011</v>
+        <v>0.001525007931102148</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33263,13 +33263,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34208,13 +34208,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35568,7 +35568,7 @@
         <v>72.49963293754659</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758688</v>
       </c>
       <c r="L13" t="n">
         <v>346.6785884946785</v>
@@ -35580,7 +35580,7 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P13" t="n">
         <v>261.8782874695908</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597635</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754659</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687999</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2711552842678</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.720260805687</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,10 +36610,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282957</v>
       </c>
       <c r="Q26" t="n">
-        <v>356.5328659981889</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,10 +36832,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36847,10 +36847,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>705.4494815282961</v>
       </c>
       <c r="Q29" t="n">
-        <v>329.1988939204469</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36911,13 +36911,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>442.9298477498686</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,7 +37078,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794531</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>359.5297983552924</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37467,13 +37467,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>402.7084046191433</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37555,10 +37555,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737849</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37713,13 +37713,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412309</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>620.0473517937801</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>80.75159439813801</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>814.7404961971433</v>
       </c>
       <c r="P44" t="n">
-        <v>675.982670373784</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
